--- a/artifact-counter/summary.xlsx
+++ b/artifact-counter/summary.xlsx
@@ -1,48 +1,607 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView windowWidth="18530" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="projects" sheetId="1" r:id="rId1"/>
+    <sheet name="widgets" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>#BdmObj</t>
+  </si>
+  <si>
+    <t>#BdmFields</t>
+  </si>
+  <si>
+    <t>#Diagrams</t>
+  </si>
+  <si>
+    <t>#Pools</t>
+  </si>
+  <si>
+    <t>#Lanes</t>
+  </si>
+  <si>
+    <t>#Tasks</t>
+  </si>
+  <si>
+    <t>#ConnectCalls</t>
+  </si>
+  <si>
+    <t>#GroovyExps</t>
+  </si>
+  <si>
+    <t>#Pages</t>
+  </si>
+  <si>
+    <t>#CWs</t>
+  </si>
+  <si>
+    <t>#Fragments</t>
+  </si>
+  <si>
+    <t>BdmField/Tasks</t>
+  </si>
+  <si>
+    <t>Tasks/Pool</t>
+  </si>
+  <si>
+    <t>ConnC/Task</t>
+  </si>
+  <si>
+    <t>GroovyE/Task</t>
+  </si>
+  <si>
+    <t>app-HRManagement</t>
+  </si>
+  <si>
+    <t>app-InvoiceManagement</t>
+  </si>
+  <si>
+    <t>app-Ticketing</t>
+  </si>
+  <si>
+    <t>credit-card-dispute-resolution</t>
+  </si>
+  <si>
+    <t>expense-report-example</t>
+  </si>
+  <si>
+    <t>procurement-example</t>
+  </si>
+  <si>
+    <t>showroom-cloud</t>
+  </si>
+  <si>
+    <t>tahiti</t>
+  </si>
+  <si>
+    <t>serenity</t>
+  </si>
+  <si>
+    <t>DemandeTeletravail-1.2</t>
+  </si>
+  <si>
+    <t>CECILIAPEREZ_Alta de Persona Juridica-4.3.0</t>
+  </si>
+  <si>
+    <t>CECILIAPEREZ_Reporte de Eventos-2.8</t>
+  </si>
+  <si>
+    <t>DongheeBaik_Security Advisory Process-1.0</t>
+  </si>
+  <si>
+    <t>FabienDelannoy_SESAM_SaisieAchat-1.3</t>
+  </si>
+  <si>
+    <t>HariPrasadAlla_TravelReqAppDiagram-1.0</t>
+  </si>
+  <si>
+    <t>JonathanSeguraGomez_Consumer_Finance_Vehiculo-1.0</t>
+  </si>
+  <si>
+    <t>josemiguelsiunavarro_repositoriobp_20200211_PR007</t>
+  </si>
+  <si>
+    <t>MatthewRiding_Process Killing Diagram-3.0</t>
+  </si>
+  <si>
+    <t>MatthewRiding_SnpmDownAlert-1.0</t>
+  </si>
+  <si>
+    <t>MatthewRobinson_AAAdCompFaculty</t>
+  </si>
+  <si>
+    <t>soo_workspace_bpm_tc</t>
+  </si>
+  <si>
+    <t>Blue stddev</t>
+  </si>
+  <si>
+    <t>Blue median</t>
+  </si>
+  <si>
+    <t>Blue mean</t>
+  </si>
+  <si>
+    <t>CW count</t>
+  </si>
+  <si>
+    <t>All CWs usage</t>
+  </si>
+  <si>
+    <t>pbAutocomplete</t>
+  </si>
+  <si>
+    <t>pbButton</t>
+  </si>
+  <si>
+    <t>pbChart</t>
+  </si>
+  <si>
+    <t>pbCheckbox</t>
+  </si>
+  <si>
+    <t>pbChecklist</t>
+  </si>
+  <si>
+    <t>pbContainer</t>
+  </si>
+  <si>
+    <t>pbDataTable</t>
+  </si>
+  <si>
+    <t>pbDatePicker</t>
+  </si>
+  <si>
+    <t>pbDateTimePicker</t>
+  </si>
+  <si>
+    <t>pbFileViewer</t>
+  </si>
+  <si>
+    <t>pbFormContainer</t>
+  </si>
+  <si>
+    <t>pbImage</t>
+  </si>
+  <si>
+    <t>pbInput</t>
+  </si>
+  <si>
+    <t>pbLink</t>
+  </si>
+  <si>
+    <t>pbModalContainer</t>
+  </si>
+  <si>
+    <t>pbRadioButtons</t>
+  </si>
+  <si>
+    <t>pbRichTextarea</t>
+  </si>
+  <si>
+    <t>pbSaveButton</t>
+  </si>
+  <si>
+    <t>pbSelect</t>
+  </si>
+  <si>
+    <t>pbTabContainer</t>
+  </si>
+  <si>
+    <t>pbTable</t>
+  </si>
+  <si>
+    <t>pbTabsContainer</t>
+  </si>
+  <si>
+    <t>pbText</t>
+  </si>
+  <si>
+    <t>pbTextarea</t>
+  </si>
+  <si>
+    <t>pbTitle</t>
+  </si>
+  <si>
+    <t>pbUpload</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,24 +609,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1" builtinId="9"/>
+    <cellStyle name="Virgule" xfId="2" builtinId="3"/>
+    <cellStyle name="60 % - Accent6" xfId="3" builtinId="52"/>
+    <cellStyle name="Calcul" xfId="4" builtinId="22"/>
+    <cellStyle name="Titre" xfId="5" builtinId="15"/>
+    <cellStyle name="Monétaire [0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Monétaire" xfId="7" builtinId="4"/>
+    <cellStyle name="Milliers [0]" xfId="8" builtinId="6"/>
+    <cellStyle name="Cellule liée" xfId="9" builtinId="24"/>
+    <cellStyle name="Pourcentage" xfId="10" builtinId="5"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="Avertissement" xfId="13" builtinId="11"/>
+    <cellStyle name="CTexte explicatif" xfId="14" builtinId="53"/>
+    <cellStyle name="Titre 1" xfId="15" builtinId="16"/>
+    <cellStyle name="Titre 2" xfId="16" builtinId="17"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29"/>
+    <cellStyle name="Titre 3" xfId="18" builtinId="18"/>
+    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
+    <cellStyle name="Titre 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Neutre" xfId="21" builtinId="28"/>
+    <cellStyle name="Entrée" xfId="22" builtinId="20"/>
+    <cellStyle name="40 % - Accent2" xfId="23" builtinId="35"/>
+    <cellStyle name="Sortie" xfId="24" builtinId="21"/>
+    <cellStyle name="Vérification de cellule" xfId="25" builtinId="23"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Accent4" xfId="27" builtinId="41"/>
+    <cellStyle name="Satisfaisant" xfId="28" builtinId="26"/>
+    <cellStyle name="Insatisfaisant" xfId="29" builtinId="27"/>
+    <cellStyle name="20 % - Accent1" xfId="30" builtinId="30"/>
+    <cellStyle name="40 % - Accent1" xfId="31" builtinId="31"/>
+    <cellStyle name="60 % - Accent1" xfId="32" builtinId="32"/>
+    <cellStyle name="20 % - Accent2" xfId="33" builtinId="34"/>
+    <cellStyle name="60 % - Accent2" xfId="34" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="35" builtinId="37"/>
+    <cellStyle name="20 % - Accent3" xfId="36" builtinId="38"/>
+    <cellStyle name="40 % - Accent3" xfId="37" builtinId="39"/>
+    <cellStyle name="60 % - Accent3" xfId="38" builtinId="40"/>
+    <cellStyle name="20 % - Accent4" xfId="39" builtinId="42"/>
+    <cellStyle name="40 % - Accent4" xfId="40" builtinId="43"/>
+    <cellStyle name="60 % - Accent4" xfId="41" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="42" builtinId="45"/>
+    <cellStyle name="20 % - Accent5" xfId="43" builtinId="46"/>
+    <cellStyle name="40 % - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60 % - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="20 % - Accent6" xfId="47" builtinId="50"/>
+    <cellStyle name="40 % - Accent6" xfId="48" builtinId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +973,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,7 +1008,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,23 +1182,3265 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="40.1818181818182" customWidth="1"/>
+    <col min="2" max="12" width="5.63636363636364" customWidth="1"/>
+    <col min="14" max="18" width="5.63636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="75.55" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>178</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>147</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="N2" s="7">
+        <f>C2/G2</f>
+        <v>4.45</v>
+      </c>
+      <c r="O2" s="7">
+        <f>G2/E2</f>
+        <v>3.33333333333333</v>
+      </c>
+      <c r="P2" s="8">
+        <f>H2/G2</f>
+        <v>0.375</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>I2/G2</f>
+        <v>3.675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>178</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>68</v>
+      </c>
+      <c r="J3">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N22" si="0">C3/G3</f>
+        <v>8.9</v>
+      </c>
+      <c r="O3" s="7">
+        <f t="shared" ref="O3:O22" si="1">G3/E3</f>
+        <v>2.22222222222222</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" ref="P3:P22" si="2">H3/G3</f>
+        <v>0.55</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q22" si="3">I3/G3</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>178</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>170</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" si="0"/>
+        <v>5.93333333333333</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="1"/>
+        <v>2.14285714285714</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.633333333333333</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="3"/>
+        <v>5.66666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>56</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.41666666666667</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="2"/>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="3"/>
+        <v>4.66666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.66666666666667</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>182</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>92</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.82142857142857</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="1"/>
+        <v>3.11111111111111</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.535714285714286</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="3"/>
+        <v>3.28571428571429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>84</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>79</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.607142857142857</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="1"/>
+        <v>6.46153846153846</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="2"/>
+        <v>0.0119047619047619</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.94047619047619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1115</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5">
+        <v>25</v>
+      </c>
+      <c r="I11" s="5">
+        <v>185</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>29</v>
+      </c>
+      <c r="L11" s="5">
+        <v>3</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="9">
+        <f t="shared" si="0"/>
+        <v>55.75</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="3"/>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
+        <v>93</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2141</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6">
+        <v>39</v>
+      </c>
+      <c r="H12" s="5">
+        <v>76</v>
+      </c>
+      <c r="I12" s="5">
+        <v>410</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>26</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="9">
+        <f t="shared" si="0"/>
+        <v>54.8974358974359</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="2"/>
+        <v>1.94871794871795</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="3"/>
+        <v>10.5128205128205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1506</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5">
+        <v>39</v>
+      </c>
+      <c r="I13" s="5">
+        <v>230</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>27</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="9">
+        <f t="shared" si="0"/>
+        <v>107.571428571429</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="2"/>
+        <v>2.78571428571429</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="3"/>
+        <v>16.4285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5">
+        <v>189</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6">
+        <v>72</v>
+      </c>
+      <c r="H14" s="5">
+        <v>38</v>
+      </c>
+      <c r="I14" s="5">
+        <v>127</v>
+      </c>
+      <c r="J14" s="5">
+        <v>23</v>
+      </c>
+      <c r="K14" s="5">
+        <v>32</v>
+      </c>
+      <c r="L14" s="5">
+        <v>14</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="9">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="2"/>
+        <v>0.527777777777778</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="3"/>
+        <v>1.76388888888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>443</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6">
+        <v>24</v>
+      </c>
+      <c r="H15" s="5">
+        <v>37</v>
+      </c>
+      <c r="I15" s="5">
+        <v>473</v>
+      </c>
+      <c r="J15" s="5">
+        <v>14</v>
+      </c>
+      <c r="K15" s="5">
+        <v>48</v>
+      </c>
+      <c r="L15" s="5">
+        <v>67</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="9">
+        <f t="shared" si="0"/>
+        <v>18.4583333333333</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="2"/>
+        <v>1.54166666666667</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="3"/>
+        <v>19.7083333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>8</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>26</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="3"/>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5">
+        <v>50</v>
+      </c>
+      <c r="G17" s="6">
+        <v>49</v>
+      </c>
+      <c r="H17" s="5">
+        <v>114</v>
+      </c>
+      <c r="I17" s="5">
+        <v>420</v>
+      </c>
+      <c r="J17" s="5">
+        <v>73</v>
+      </c>
+      <c r="K17" s="5">
+        <v>56</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1304347826087</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="2"/>
+        <v>2.3265306122449</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="3"/>
+        <v>8.57142857142857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5">
+        <v>809</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6">
+        <v>69</v>
+      </c>
+      <c r="H18" s="5">
+        <v>52</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1026</v>
+      </c>
+      <c r="J18" s="5">
+        <v>36</v>
+      </c>
+      <c r="K18" s="5">
+        <v>36</v>
+      </c>
+      <c r="L18" s="5">
+        <v>2</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="9">
+        <f t="shared" si="0"/>
+        <v>11.7246376811594</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="1"/>
+        <v>17.25</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.753623188405797</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="3"/>
+        <v>14.8695652173913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3</v>
+      </c>
+      <c r="I19" s="5">
+        <v>24</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>26</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="9">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>20</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>26</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5">
+        <v>388</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>14</v>
+      </c>
+      <c r="G21" s="6">
+        <v>24</v>
+      </c>
+      <c r="H21" s="5">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
+        <v>198</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>27</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="9">
+        <f t="shared" si="0"/>
+        <v>16.1666666666667</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="2"/>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="3"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>120</v>
+      </c>
+      <c r="E22" s="5">
+        <v>516</v>
+      </c>
+      <c r="F22" s="5">
+        <v>64</v>
+      </c>
+      <c r="G22" s="6">
+        <v>672</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1078</v>
+      </c>
+      <c r="I22" s="5">
+        <v>3203</v>
+      </c>
+      <c r="J22" s="5">
+        <v>76</v>
+      </c>
+      <c r="K22" s="5">
+        <v>37</v>
+      </c>
+      <c r="L22" s="5">
+        <v>39</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="1"/>
+        <v>1.30232558139535</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="2"/>
+        <v>1.60416666666667</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="3"/>
+        <v>4.76636904761905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24">
+        <f>_xlfn.STDEV.S(N11:N22)</f>
+        <v>33.1052357768601</v>
+      </c>
+      <c r="O24">
+        <f>_xlfn.STDEV.S(O11:O22)</f>
+        <v>20.438233787514</v>
+      </c>
+      <c r="P24">
+        <f>_xlfn.STDEV.S(P11:P22)</f>
+        <v>0.874082933254075</v>
+      </c>
+      <c r="Q24">
+        <f>_xlfn.STDEV.S(Q11:Q22)</f>
+        <v>6.06838942549492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="3">
+        <f>MEDIAN(N11:N22)</f>
+        <v>8.36231884057971</v>
+      </c>
+      <c r="O25" s="3">
+        <f>MEDIAN(O11:O22)</f>
+        <v>15.625</v>
+      </c>
+      <c r="P25" s="3">
+        <f>MEDIAN(P11:P22)</f>
+        <v>1.375</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>MEDIAN(Q11:Q22)</f>
+        <v>8.91071428571428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26">
+        <f>AVERAGEA(N11:N22)</f>
+        <v>23.149458512502</v>
+      </c>
+      <c r="O26">
+        <f>AVERAGEA(O11:O22)</f>
+        <v>18.723563363667</v>
+      </c>
+      <c r="P26">
+        <f>AVERAGEA(P11:P22)</f>
+        <v>1.23790531773839</v>
+      </c>
+      <c r="Q26">
+        <f>AVERAGEA(Q11:Q22)</f>
+        <v>9.06563697222665</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AC22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="28.5454545454545" customWidth="1"/>
+    <col min="2" max="29" width="4.63636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="90.05" spans="1:29">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>178</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>708</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>36</v>
+      </c>
+      <c r="N2">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>214</v>
+      </c>
+      <c r="Q2">
+        <v>22</v>
+      </c>
+      <c r="R2">
+        <v>38</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>26</v>
+      </c>
+      <c r="W2">
+        <v>54</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>16</v>
+      </c>
+      <c r="Z2">
+        <v>532</v>
+      </c>
+      <c r="AA2">
+        <v>12</v>
+      </c>
+      <c r="AB2">
+        <v>149</v>
+      </c>
+      <c r="AC2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>179</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>617</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>159</v>
+      </c>
+      <c r="Q3">
+        <v>31</v>
+      </c>
+      <c r="R3">
+        <v>42</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>33</v>
+      </c>
+      <c r="W3">
+        <v>23</v>
+      </c>
+      <c r="X3">
+        <v>7</v>
+      </c>
+      <c r="Y3">
+        <v>8</v>
+      </c>
+      <c r="Z3">
+        <v>510</v>
+      </c>
+      <c r="AA3">
+        <v>11</v>
+      </c>
+      <c r="AB3">
+        <v>139</v>
+      </c>
+      <c r="AC3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>172</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>671</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>75</v>
+      </c>
+      <c r="Q4">
+        <v>27</v>
+      </c>
+      <c r="R4">
+        <v>37</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>35</v>
+      </c>
+      <c r="W4">
+        <v>11</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
+      <c r="Z4">
+        <v>550</v>
+      </c>
+      <c r="AA4">
+        <v>9</v>
+      </c>
+      <c r="AB4">
+        <v>148</v>
+      </c>
+      <c r="AC4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>62</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>57</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>13</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>37</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>14</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>45</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>16</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>149</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>501</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>55</v>
+      </c>
+      <c r="Q8">
+        <v>29</v>
+      </c>
+      <c r="R8">
+        <v>33</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>23</v>
+      </c>
+      <c r="W8">
+        <v>11</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>519</v>
+      </c>
+      <c r="AA8">
+        <v>9</v>
+      </c>
+      <c r="AB8">
+        <v>107</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>59</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>41</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>21</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>73</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>23</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>57</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>20</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>369</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>96</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>34</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>64</v>
+      </c>
+      <c r="AA11">
+        <v>37</v>
+      </c>
+      <c r="AB11">
+        <v>34</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>5</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>2047</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>189</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>425</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>203</v>
+      </c>
+      <c r="Q14">
+        <v>141</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>15</v>
+      </c>
+      <c r="W14">
+        <v>40</v>
+      </c>
+      <c r="X14">
+        <v>87</v>
+      </c>
+      <c r="Y14">
+        <v>20</v>
+      </c>
+      <c r="Z14">
+        <v>501</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AB14">
+        <v>298</v>
+      </c>
+      <c r="AC14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>1066</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>78</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>337</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>29</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>400</v>
+      </c>
+      <c r="AA15">
+        <v>8</v>
+      </c>
+      <c r="AB15">
+        <v>61</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>8</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>2056</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>439</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>74</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>282</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>19</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>3396</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>128</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>364</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>68</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>34</v>
+      </c>
+      <c r="O18">
+        <v>31</v>
+      </c>
+      <c r="P18">
+        <v>891</v>
+      </c>
+      <c r="Q18">
+        <v>46</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>109</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>194</v>
+      </c>
+      <c r="W18">
+        <v>31</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>8</v>
+      </c>
+      <c r="Z18">
+        <v>687</v>
+      </c>
+      <c r="AA18">
+        <v>33</v>
+      </c>
+      <c r="AB18">
+        <v>473</v>
+      </c>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>9</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>8094</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>129</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1432</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>59</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>169</v>
+      </c>
+      <c r="Q22">
+        <v>94</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>16</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>32</v>
+      </c>
+      <c r="W22">
+        <v>596</v>
+      </c>
+      <c r="X22">
+        <v>18</v>
+      </c>
+      <c r="Y22">
+        <v>203</v>
+      </c>
+      <c r="Z22">
+        <v>4277</v>
+      </c>
+      <c r="AA22">
+        <v>62</v>
+      </c>
+      <c r="AB22">
+        <v>666</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/artifact-counter/summary.xlsx
+++ b/artifact-counter/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7050" activeTab="1"/>
+    <workbookView windowWidth="24530" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="projects" sheetId="1" r:id="rId1"/>
@@ -226,14 +226,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,33 +251,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,13 +270,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,11 +288,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,14 +342,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -357,23 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,6 +364,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -394,8 +379,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,7 +409,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +505,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,85 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,61 +577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,26 +603,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,16 +627,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -681,8 +668,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -697,53 +686,57 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,106 +745,106 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -865,10 +858,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1769,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="L11" s="5">
         <v>3</v>
@@ -1824,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1879,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1934,7 +1927,7 @@
         <v>23</v>
       </c>
       <c r="K14" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="L14" s="5">
         <v>14</v>
@@ -1989,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="5">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="L15" s="5">
         <v>67</v>
@@ -2044,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
@@ -2099,7 +2092,7 @@
         <v>73</v>
       </c>
       <c r="K17" s="5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="L17" s="5">
         <v>1</v>
@@ -2154,7 +2147,7 @@
         <v>36</v>
       </c>
       <c r="K18" s="5">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L18" s="5">
         <v>2</v>
@@ -2209,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
@@ -2264,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L20" s="5">
         <v>0</v>
@@ -2319,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="L21" s="5">
         <v>0</v>
@@ -2374,7 +2367,7 @@
         <v>76</v>
       </c>
       <c r="K22" s="5">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L22" s="5">
         <v>39</v>
@@ -2471,8 +2464,8 @@
   <sheetPr/>
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3376,10 +3369,10 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>369</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3465,10 +3458,10 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3554,10 +3547,10 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3643,10 +3636,10 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>2047</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3732,10 +3725,10 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>1066</v>
+        <v>110</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3821,10 +3814,10 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3910,10 +3903,10 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>2056</v>
+        <v>1151</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3999,10 +3992,10 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>3396</v>
+        <v>260</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4088,10 +4081,10 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4177,10 +4170,10 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4266,10 +4259,10 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4355,10 +4348,10 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>8094</v>
+        <v>333</v>
       </c>
       <c r="D22">
         <v>0</v>
